--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -491,7 +491,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -530,7 +530,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,28 +545,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -845,8 +832,8 @@
   <dimension ref="A1:R255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S216" sqref="S216"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,24 +846,24 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="G1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="L1" s="34" t="s">
+      <c r="B1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -917,10 +904,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="32"/>
+      <c r="C6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="33"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="13">
@@ -937,10 +924,10 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="32"/>
+      <c r="M6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="33"/>
       <c r="O6" s="14"/>
       <c r="Q6" t="s">
         <v>25</v>
@@ -2552,7 +2539,7 @@
       </c>
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
-      <c r="O69" s="35"/>
+      <c r="O69" s="32"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="10"/>
@@ -2574,10 +2561,10 @@
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="36"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="34"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
@@ -2599,10 +2586,10 @@
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="36"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="34"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
@@ -2624,10 +2611,10 @@
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="36"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="34"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
@@ -2726,7 +2713,7 @@
       </c>
       <c r="M77" s="31"/>
       <c r="N77" s="31"/>
-      <c r="O77" s="35"/>
+      <c r="O77" s="32"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="10"/>
@@ -2748,10 +2735,10 @@
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="36"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="34"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
@@ -2773,10 +2760,10 @@
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="36"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="34"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
@@ -2798,10 +2785,10 @@
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="36"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="34"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
@@ -2900,7 +2887,7 @@
       </c>
       <c r="M85" s="31"/>
       <c r="N85" s="31"/>
-      <c r="O85" s="35"/>
+      <c r="O85" s="32"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
@@ -2922,10 +2909,10 @@
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="36"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="34"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
@@ -2947,10 +2934,10 @@
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="36"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="34"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
@@ -2972,10 +2959,10 @@
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="36"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="34"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
@@ -3116,7 +3103,7 @@
       </c>
       <c r="M95" s="31"/>
       <c r="N95" s="31"/>
-      <c r="O95" s="35"/>
+      <c r="O95" s="32"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
@@ -3138,10 +3125,10 @@
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
-      <c r="L96" s="32"/>
-      <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="36"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="33"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="34"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
@@ -3163,10 +3150,10 @@
       <c r="I97" s="11"/>
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
-      <c r="L97" s="32"/>
-      <c r="M97" s="32"/>
-      <c r="N97" s="32"/>
-      <c r="O97" s="36"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="33"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="34"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
@@ -3188,10 +3175,10 @@
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
-      <c r="L98" s="32"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="36"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="33"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="34"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
@@ -4076,7 +4063,9 @@
       <c r="D160" s="24">
         <v>0</v>
       </c>
-      <c r="E160" s="15"/>
+      <c r="E160" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -4089,7 +4078,9 @@
       <c r="D161" s="24">
         <v>0</v>
       </c>
-      <c r="E161" s="15"/>
+      <c r="E161" s="15">
+        <v>1160</v>
+      </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
@@ -4102,7 +4093,9 @@
       <c r="D162" s="24">
         <v>0</v>
       </c>
-      <c r="E162" s="15"/>
+      <c r="E162" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="163" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
@@ -4115,7 +4108,9 @@
       <c r="D163" s="25">
         <v>0</v>
       </c>
-      <c r="E163" s="26"/>
+      <c r="E163" s="26">
+        <v>987</v>
+      </c>
     </row>
     <row r="164" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
@@ -5046,378 +5041,378 @@
       <c r="O203" s="2"/>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A204" s="37" t="s">
+      <c r="A204" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B204" s="38"/>
-      <c r="C204" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D204" s="39"/>
-      <c r="E204" s="38"/>
-      <c r="F204" s="38"/>
-      <c r="G204" s="40" t="s">
+      <c r="B204" s="8"/>
+      <c r="C204" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204" s="37"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H204" s="38"/>
-      <c r="I204" s="38"/>
-      <c r="J204" s="38"/>
-      <c r="K204" s="38"/>
-      <c r="L204" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="M204" s="38"/>
-      <c r="N204" s="41"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="8"/>
+      <c r="L204" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M204" s="8"/>
+      <c r="N204" s="9"/>
       <c r="O204" s="2"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A205" s="42"/>
-      <c r="B205" s="43">
-        <v>1</v>
-      </c>
-      <c r="C205" s="43">
-        <v>2</v>
-      </c>
-      <c r="D205" s="43">
-        <v>5</v>
-      </c>
-      <c r="E205" s="43">
+      <c r="A205" s="10"/>
+      <c r="B205" s="13">
+        <v>1</v>
+      </c>
+      <c r="C205" s="13">
+        <v>2</v>
+      </c>
+      <c r="D205" s="13">
+        <v>5</v>
+      </c>
+      <c r="E205" s="13">
         <v>34</v>
       </c>
-      <c r="F205" s="44"/>
-      <c r="G205" s="43">
+      <c r="F205" s="11"/>
+      <c r="G205" s="13">
         <v>6</v>
       </c>
-      <c r="H205" s="44"/>
-      <c r="I205" s="44"/>
-      <c r="J205" s="44"/>
-      <c r="K205" s="44"/>
-      <c r="L205" s="43">
-        <v>1</v>
-      </c>
-      <c r="M205" s="43">
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="13">
+        <v>1</v>
+      </c>
+      <c r="M205" s="13">
         <v>706</v>
       </c>
-      <c r="N205" s="45">
+      <c r="N205" s="15">
         <v>0</v>
       </c>
       <c r="O205" s="2"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A206" s="42"/>
-      <c r="B206" s="43">
-        <v>2</v>
-      </c>
-      <c r="C206" s="43">
-        <v>1</v>
-      </c>
-      <c r="D206" s="43">
+      <c r="A206" s="10"/>
+      <c r="B206" s="13">
+        <v>2</v>
+      </c>
+      <c r="C206" s="13">
+        <v>1</v>
+      </c>
+      <c r="D206" s="13">
         <v>6</v>
       </c>
-      <c r="E206" s="43">
+      <c r="E206" s="13">
         <v>11</v>
       </c>
-      <c r="F206" s="44"/>
-      <c r="G206" s="44"/>
-      <c r="H206" s="44"/>
-      <c r="I206" s="44"/>
-      <c r="J206" s="44"/>
-      <c r="K206" s="44"/>
-      <c r="L206" s="43">
-        <v>2</v>
-      </c>
-      <c r="M206" s="43">
-        <v>1000</v>
-      </c>
-      <c r="N206" s="45">
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="13">
+        <v>2</v>
+      </c>
+      <c r="M206" s="13">
+        <v>1000</v>
+      </c>
+      <c r="N206" s="15">
         <v>0</v>
       </c>
       <c r="O206" s="2"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A207" s="42"/>
-      <c r="B207" s="43">
-        <v>3</v>
-      </c>
-      <c r="C207" s="43">
-        <v>5</v>
-      </c>
-      <c r="D207" s="43">
+      <c r="A207" s="10"/>
+      <c r="B207" s="13">
+        <v>3</v>
+      </c>
+      <c r="C207" s="13">
+        <v>5</v>
+      </c>
+      <c r="D207" s="13">
         <v>6</v>
       </c>
-      <c r="E207" s="43">
+      <c r="E207" s="13">
         <v>20</v>
       </c>
-      <c r="F207" s="44"/>
-      <c r="G207" s="44"/>
-      <c r="H207" s="44"/>
-      <c r="I207" s="44"/>
-      <c r="J207" s="44"/>
-      <c r="K207" s="44"/>
-      <c r="L207" s="43">
-        <v>3</v>
-      </c>
-      <c r="M207" s="43">
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="13">
+        <v>3</v>
+      </c>
+      <c r="M207" s="13">
         <v>1120</v>
       </c>
-      <c r="N207" s="45">
+      <c r="N207" s="15">
         <v>0</v>
       </c>
       <c r="O207" s="2"/>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A208" s="42"/>
-      <c r="B208" s="43">
-        <v>4</v>
-      </c>
-      <c r="C208" s="43">
-        <v>1</v>
-      </c>
-      <c r="D208" s="43">
+      <c r="A208" s="10"/>
+      <c r="B208" s="13">
+        <v>4</v>
+      </c>
+      <c r="C208" s="13">
+        <v>1</v>
+      </c>
+      <c r="D208" s="13">
         <v>7</v>
       </c>
-      <c r="E208" s="43">
+      <c r="E208" s="13">
         <v>-22</v>
       </c>
-      <c r="F208" s="44"/>
-      <c r="G208" s="44"/>
-      <c r="H208" s="44"/>
-      <c r="I208" s="44"/>
-      <c r="J208" s="44"/>
-      <c r="K208" s="44"/>
-      <c r="L208" s="43">
-        <v>4</v>
-      </c>
-      <c r="M208" s="43">
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="13">
+        <v>4</v>
+      </c>
+      <c r="M208" s="13">
         <v>1120</v>
       </c>
-      <c r="N208" s="45">
+      <c r="N208" s="15">
         <v>0</v>
       </c>
       <c r="O208" s="2"/>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A209" s="42"/>
-      <c r="B209" s="43">
-        <v>5</v>
-      </c>
-      <c r="C209" s="43">
-        <v>3</v>
-      </c>
-      <c r="D209" s="43">
+      <c r="A209" s="10"/>
+      <c r="B209" s="13">
+        <v>5</v>
+      </c>
+      <c r="C209" s="13">
+        <v>3</v>
+      </c>
+      <c r="D209" s="13">
         <v>8</v>
       </c>
-      <c r="E209" s="43">
+      <c r="E209" s="13">
         <v>-10</v>
       </c>
-      <c r="F209" s="44"/>
-      <c r="G209" s="44"/>
-      <c r="H209" s="44"/>
-      <c r="I209" s="44"/>
-      <c r="J209" s="44"/>
-      <c r="K209" s="44"/>
-      <c r="L209" s="43">
-        <v>5</v>
-      </c>
-      <c r="M209" s="43">
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="13">
+        <v>5</v>
+      </c>
+      <c r="M209" s="13">
         <v>1054</v>
       </c>
-      <c r="N209" s="45">
+      <c r="N209" s="15">
         <v>0</v>
       </c>
       <c r="O209" s="2"/>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A210" s="42"/>
-      <c r="B210" s="43">
+      <c r="A210" s="10"/>
+      <c r="B210" s="13">
         <v>6</v>
       </c>
-      <c r="C210" s="43">
-        <v>4</v>
-      </c>
-      <c r="D210" s="43">
+      <c r="C210" s="13">
+        <v>4</v>
+      </c>
+      <c r="D210" s="13">
         <v>9</v>
       </c>
-      <c r="E210" s="43">
+      <c r="E210" s="13">
         <v>-40</v>
       </c>
-      <c r="F210" s="44"/>
-      <c r="G210" s="44"/>
-      <c r="H210" s="44"/>
-      <c r="I210" s="44"/>
-      <c r="J210" s="44"/>
-      <c r="K210" s="44"/>
-      <c r="L210" s="44"/>
-      <c r="M210" s="44"/>
-      <c r="N210" s="46"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="11"/>
+      <c r="L210" s="11"/>
+      <c r="M210" s="11"/>
+      <c r="N210" s="14"/>
       <c r="O210" s="2"/>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A211" s="42"/>
-      <c r="B211" s="44"/>
-      <c r="C211" s="44"/>
-      <c r="D211" s="44"/>
-      <c r="E211" s="44"/>
-      <c r="F211" s="44"/>
-      <c r="G211" s="44"/>
-      <c r="H211" s="44"/>
-      <c r="I211" s="44"/>
-      <c r="J211" s="44"/>
-      <c r="K211" s="44"/>
-      <c r="L211" s="44"/>
-      <c r="M211" s="44"/>
-      <c r="N211" s="46"/>
+      <c r="A211" s="10"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="11"/>
+      <c r="L211" s="11"/>
+      <c r="M211" s="11"/>
+      <c r="N211" s="14"/>
       <c r="O211" s="2"/>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A212" s="42"/>
-      <c r="B212" s="44"/>
-      <c r="C212" s="44"/>
-      <c r="D212" s="44"/>
-      <c r="E212" s="44"/>
-      <c r="F212" s="44"/>
-      <c r="G212" s="44"/>
-      <c r="H212" s="44"/>
-      <c r="I212" s="44"/>
-      <c r="J212" s="44"/>
-      <c r="K212" s="44"/>
-      <c r="L212" s="44"/>
-      <c r="M212" s="44"/>
-      <c r="N212" s="46"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="11"/>
+      <c r="M212" s="11"/>
+      <c r="N212" s="14"/>
       <c r="O212" s="2"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A213" s="42"/>
-      <c r="B213" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C213" s="44"/>
-      <c r="D213" s="44"/>
-      <c r="E213" s="44"/>
-      <c r="F213" s="44"/>
-      <c r="G213" s="44"/>
-      <c r="H213" s="44"/>
-      <c r="I213" s="44"/>
-      <c r="J213" s="44"/>
-      <c r="K213" s="44"/>
-      <c r="L213" s="44"/>
-      <c r="M213" s="44"/>
-      <c r="N213" s="46"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="11"/>
+      <c r="M213" s="11"/>
+      <c r="N213" s="14"/>
       <c r="O213" s="2"/>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A214" s="42"/>
-      <c r="B214" s="43">
-        <v>1</v>
-      </c>
-      <c r="C214" s="43">
-        <v>1000</v>
-      </c>
-      <c r="D214" s="43">
+      <c r="A214" s="10"/>
+      <c r="B214" s="13">
+        <v>1</v>
+      </c>
+      <c r="C214" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D214" s="13">
         <v>-49</v>
       </c>
-      <c r="E214" s="44"/>
-      <c r="F214" s="44"/>
-      <c r="G214" s="44"/>
-      <c r="H214" s="44"/>
-      <c r="I214" s="44"/>
-      <c r="J214" s="44"/>
-      <c r="K214" s="44"/>
-      <c r="L214" s="44"/>
-      <c r="M214" s="44"/>
-      <c r="N214" s="46"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="11"/>
+      <c r="K214" s="11"/>
+      <c r="L214" s="11"/>
+      <c r="M214" s="11"/>
+      <c r="N214" s="14"/>
       <c r="O214" s="2"/>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A215" s="42"/>
-      <c r="B215" s="43">
-        <v>2</v>
-      </c>
-      <c r="C215" s="43">
-        <v>1000</v>
-      </c>
-      <c r="D215" s="43">
-        <v>0</v>
-      </c>
-      <c r="E215" s="44"/>
-      <c r="F215" s="44"/>
-      <c r="G215" s="44"/>
-      <c r="H215" s="44"/>
-      <c r="I215" s="44"/>
-      <c r="J215" s="44"/>
-      <c r="K215" s="44"/>
-      <c r="L215" s="44"/>
-      <c r="M215" s="44"/>
-      <c r="N215" s="46"/>
+      <c r="A215" s="10"/>
+      <c r="B215" s="13">
+        <v>2</v>
+      </c>
+      <c r="C215" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D215" s="13">
+        <v>0</v>
+      </c>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+      <c r="M215" s="11"/>
+      <c r="N215" s="14"/>
       <c r="O215" s="2"/>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A216" s="42"/>
-      <c r="B216" s="43">
-        <v>3</v>
-      </c>
-      <c r="C216" s="43">
-        <v>1000</v>
-      </c>
-      <c r="D216" s="43">
+      <c r="A216" s="10"/>
+      <c r="B216" s="13">
+        <v>3</v>
+      </c>
+      <c r="C216" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D216" s="13">
         <v>20</v>
       </c>
-      <c r="E216" s="44"/>
-      <c r="F216" s="44"/>
-      <c r="G216" s="44"/>
-      <c r="H216" s="44"/>
-      <c r="I216" s="44"/>
-      <c r="J216" s="44"/>
-      <c r="K216" s="44"/>
-      <c r="L216" s="44"/>
-      <c r="M216" s="44"/>
-      <c r="N216" s="46"/>
+      <c r="E216" s="11"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="11"/>
+      <c r="L216" s="11"/>
+      <c r="M216" s="11"/>
+      <c r="N216" s="14"/>
       <c r="O216" s="2"/>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A217" s="42"/>
-      <c r="B217" s="43">
-        <v>4</v>
-      </c>
-      <c r="C217" s="43">
-        <v>1000</v>
-      </c>
-      <c r="D217" s="43">
+      <c r="A217" s="10"/>
+      <c r="B217" s="13">
+        <v>4</v>
+      </c>
+      <c r="C217" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D217" s="13">
         <v>20</v>
       </c>
-      <c r="E217" s="44"/>
-      <c r="F217" s="44"/>
-      <c r="G217" s="44"/>
-      <c r="H217" s="44"/>
-      <c r="I217" s="44"/>
-      <c r="J217" s="44"/>
-      <c r="K217" s="44"/>
-      <c r="L217" s="44"/>
-      <c r="M217" s="44"/>
-      <c r="N217" s="46"/>
+      <c r="E217" s="11"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="11"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="11"/>
+      <c r="L217" s="11"/>
+      <c r="M217" s="11"/>
+      <c r="N217" s="14"/>
       <c r="O217" s="2"/>
     </row>
     <row r="218" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="47"/>
-      <c r="B218" s="48">
-        <v>5</v>
-      </c>
-      <c r="C218" s="48">
-        <v>1000</v>
-      </c>
-      <c r="D218" s="48">
+      <c r="A218" s="16"/>
+      <c r="B218" s="21">
+        <v>5</v>
+      </c>
+      <c r="C218" s="21">
+        <v>1000</v>
+      </c>
+      <c r="D218" s="21">
         <v>9</v>
       </c>
-      <c r="E218" s="49"/>
-      <c r="F218" s="49"/>
-      <c r="G218" s="49"/>
-      <c r="H218" s="49"/>
-      <c r="I218" s="49"/>
-      <c r="J218" s="49"/>
-      <c r="K218" s="49"/>
-      <c r="L218" s="49"/>
-      <c r="M218" s="49"/>
-      <c r="N218" s="50"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="17"/>
+      <c r="M218" s="17"/>
+      <c r="N218" s="18"/>
       <c r="O218" s="2"/>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.2">
@@ -6105,6 +6100,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="L69:O72"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="L77:O80"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="L85:O88"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="C165:D165"/>
     <mergeCell ref="M165:N165"/>
     <mergeCell ref="C204:D204"/>
@@ -6113,24 +6126,6 @@
     <mergeCell ref="C112:D112"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C151:D151"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="L69:O72"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="L77:O80"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="L85:O88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
